--- a/Electronique/Carte Robot/Brochage Teensy 3.5.xlsx
+++ b/Electronique/Carte Robot/Brochage Teensy 3.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Folder\my_robot\Electronique\Carte Robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git folder\my_robot\Electronique\Carte Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F401680-7CFC-4273-85C0-E0CC5D31E2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB24CB3-8E99-426D-A530-41A735B4CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brochage v1" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -264,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +302,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -728,7 +739,7 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -745,7 +756,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
@@ -757,7 +768,7 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -766,7 +777,7 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4">
         <v>23</v>
       </c>
@@ -781,7 +792,7 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="4">
         <v>22</v>
       </c>
@@ -796,7 +807,7 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="4">
         <v>21</v>
       </c>
@@ -808,7 +819,7 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="4">
         <v>20</v>
       </c>
@@ -820,7 +831,7 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4">
         <v>19</v>
       </c>
@@ -835,7 +846,7 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4">
         <v>18</v>
       </c>
@@ -850,7 +861,7 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4">
         <v>17</v>
       </c>
@@ -865,7 +876,7 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4">
         <v>16</v>
       </c>
@@ -880,7 +891,7 @@
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4">
         <v>15</v>
       </c>
@@ -892,7 +903,7 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="4">
         <v>14</v>
       </c>
@@ -907,7 +918,7 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4">
         <v>13</v>
       </c>
@@ -922,7 +933,7 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
@@ -937,7 +948,7 @@
       <c r="B18" s="4">
         <v>24</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
@@ -949,7 +960,7 @@
       <c r="B19" s="4">
         <v>25</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
@@ -961,7 +972,7 @@
       <c r="B20" s="4">
         <v>26</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4">
         <v>39</v>
       </c>
@@ -976,7 +987,7 @@
       <c r="B21" s="4">
         <v>27</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4">
         <v>38</v>
       </c>
@@ -991,7 +1002,7 @@
       <c r="B22" s="4">
         <v>28</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4">
         <v>37</v>
       </c>
@@ -1006,7 +1017,7 @@
       <c r="B23" s="4">
         <v>29</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="4">
         <v>36</v>
       </c>
@@ -1021,7 +1032,7 @@
       <c r="B24" s="4">
         <v>30</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="4">
         <v>35</v>
       </c>
@@ -1036,7 +1047,7 @@
       <c r="B25" s="4">
         <v>31</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4">
         <v>34</v>
       </c>
@@ -1048,7 +1059,7 @@
       <c r="B26" s="4">
         <v>32</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4">
         <v>33</v>
       </c>
@@ -1068,7 +1079,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1113,7 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1119,7 +1130,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1142,7 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1152,7 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4">
         <v>23</v>
       </c>
@@ -1150,26 +1161,26 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="4">
         <v>22</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="4">
         <v>21</v>
       </c>
@@ -1182,7 +1193,7 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="4">
         <v>20</v>
       </c>
@@ -1195,7 +1206,7 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4">
         <v>19</v>
       </c>
@@ -1210,7 +1221,7 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4">
         <v>18</v>
       </c>
@@ -1225,7 +1236,7 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4">
         <v>17</v>
       </c>
@@ -1240,7 +1251,7 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4">
         <v>16</v>
       </c>
@@ -1255,7 +1266,7 @@
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4">
         <v>15</v>
       </c>
@@ -1270,7 +1281,7 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="4">
         <v>14</v>
       </c>
@@ -1285,7 +1296,7 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4">
         <v>13</v>
       </c>
@@ -1300,7 +1311,7 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1323,7 @@
       <c r="B18" s="4">
         <v>24</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1325,7 +1336,7 @@
       <c r="B19" s="4">
         <v>25</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1349,7 @@
       <c r="B20" s="4">
         <v>26</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4">
         <v>39</v>
       </c>
@@ -1353,7 +1364,7 @@
       <c r="B21" s="4">
         <v>27</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4">
         <v>38</v>
       </c>
@@ -1362,13 +1373,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
+      <c r="A22" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <v>28</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4">
         <v>37</v>
       </c>
@@ -1378,12 +1389,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4">
         <v>29</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="4">
         <v>36</v>
       </c>
@@ -1392,13 +1403,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="4">
         <v>30</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="4">
         <v>35</v>
       </c>
@@ -1413,7 +1424,7 @@
       <c r="B25" s="4">
         <v>31</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4">
         <v>34</v>
       </c>
@@ -1426,7 +1437,7 @@
       <c r="B26" s="4">
         <v>32</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4">
         <v>33</v>
       </c>

--- a/Electronique/Carte Robot/Brochage Teensy 3.5.xlsx
+++ b/Electronique/Carte Robot/Brochage Teensy 3.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git folder\my_robot\Electronique\Carte Robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Folder\my_robot\Electronique\Carte Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB24CB3-8E99-426D-A530-41A735B4CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF49CF-252F-4125-9080-E90C8BB907C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brochage v1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Labels</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Teensy 3.5</t>
+  </si>
+  <si>
+    <t>STRAT</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1151,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1189,7 +1194,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
